--- a/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-filtered-fields-compatible-with-import.xlsx
+++ b/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-filtered-fields-compatible-with-import.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
   <si>
     <t xml:space="preserve">SAMPLE</t>
   </si>
@@ -81,6 +81,12 @@
   <si>
     <t xml:space="preserve">/ELN_SETTINGS/STORAGES/CHILD_1
 /ELN_SETTINGS/STORAGES/CHILD_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELN_SETTINGS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/ELN_SETTINGS/STORAGES</t>
   </si>
   <si>
     <t xml:space="preserve">DEFAULT_STORAGE</t>
@@ -300,10 +306,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMG14"/>
+  <dimension ref="A1:XFC14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
+      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -315,8 +321,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="24.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="21.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1022" style="1" width="8.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="8.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1021" style="1" width="8.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16383" min="16383" style="1" width="8.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="8.37"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -365,8 +373,8 @@
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="AMG4" s="1"/>
+      <c r="AMF4" s="1"/>
+      <c r="XFC4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
@@ -387,9 +395,9 @@
       <c r="G5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="AMG5" s="1"/>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="AMF5" s="1"/>
+      <c r="XFC5" s="0"/>
+    </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>0</v>
@@ -431,12 +439,21 @@
       <c r="F10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="8"/>
-      <c r="AMD10" s="1"/>
-      <c r="AME10" s="1"/>
+      <c r="J10" s="8"/>
+      <c r="AMF10" s="1"/>
+      <c r="AMH10" s="0"/>
+      <c r="AMJ10" s="1"/>
+      <c r="AMK10" s="1"/>
+      <c r="XFC10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
@@ -452,18 +469,27 @@
       <c r="E11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="AMD11" s="1"/>
-      <c r="AME11" s="1"/>
+      <c r="AMF11" s="1"/>
+      <c r="AMH11" s="0"/>
+      <c r="AMJ11" s="1"/>
+      <c r="AMK11" s="1"/>
+      <c r="XFC11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C12" s="11" t="n">
         <v>1111</v>
@@ -471,49 +497,76 @@
       <c r="E12" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="AMD12" s="1"/>
-      <c r="AME12" s="1"/>
+      <c r="AMF12" s="1"/>
+      <c r="AMH12" s="0"/>
+      <c r="AMJ12" s="1"/>
+      <c r="AMK12" s="1"/>
+      <c r="XFC12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="129.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="AMD13" s="1"/>
-      <c r="AME13" s="1"/>
+      <c r="AMF13" s="1"/>
+      <c r="AMH13" s="0"/>
+      <c r="AMJ13" s="1"/>
+      <c r="AMK13" s="1"/>
+      <c r="XFC13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="129.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="AMD14" s="1"/>
-      <c r="AME14" s="1"/>
+      <c r="AMF14" s="1"/>
+      <c r="AMH14" s="0"/>
+      <c r="AMJ14" s="1"/>
+      <c r="AMK14" s="1"/>
+      <c r="XFC14" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-filtered-fields-compatible-with-import.xlsx
+++ b/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-filtered-fields-compatible-with-import.xlsx
@@ -49,7 +49,7 @@
     <t xml:space="preserve">$</t>
   </si>
   <si>
-    <t xml:space="preserve">Auto generate codes</t>
+    <t xml:space="preserve">Auto generate code</t>
   </si>
   <si>
     <t xml:space="preserve">/DEFAULT/DEFAULT/DEFAULT</t>
@@ -306,10 +306,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:XFC14"/>
+  <dimension ref="A1:AMK14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -320,11 +320,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="24.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="21.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="20.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="22.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1021" style="1" width="8.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16383" min="16383" style="1" width="8.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="8.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="1" width="8.37"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -374,7 +374,6 @@
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="AMF4" s="1"/>
-      <c r="XFC4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
@@ -396,7 +395,6 @@
         <v>12</v>
       </c>
       <c r="AMF5" s="1"/>
-      <c r="XFC5" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
@@ -450,10 +448,8 @@
       </c>
       <c r="J10" s="8"/>
       <c r="AMF10" s="1"/>
-      <c r="AMH10" s="0"/>
       <c r="AMJ10" s="1"/>
       <c r="AMK10" s="1"/>
-      <c r="XFC10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
@@ -479,10 +475,8 @@
         <v>12</v>
       </c>
       <c r="AMF11" s="1"/>
-      <c r="AMH11" s="0"/>
       <c r="AMJ11" s="1"/>
       <c r="AMK11" s="1"/>
-      <c r="XFC11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
@@ -507,10 +501,8 @@
         <v>12</v>
       </c>
       <c r="AMF12" s="1"/>
-      <c r="AMH12" s="0"/>
       <c r="AMJ12" s="1"/>
       <c r="AMK12" s="1"/>
-      <c r="XFC12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="129.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
@@ -535,10 +527,8 @@
         <v>12</v>
       </c>
       <c r="AMF13" s="1"/>
-      <c r="AMH13" s="0"/>
       <c r="AMJ13" s="1"/>
       <c r="AMK13" s="1"/>
-      <c r="XFC13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="129.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
@@ -563,10 +553,8 @@
         <v>12</v>
       </c>
       <c r="AMF14" s="1"/>
-      <c r="AMH14" s="0"/>
       <c r="AMJ14" s="1"/>
       <c r="AMK14" s="1"/>
-      <c r="XFC14" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-filtered-fields-compatible-with-import.xlsx
+++ b/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-filtered-fields-compatible-with-import.xlsx
@@ -308,8 +308,8 @@
   </sheetPr>
   <dimension ref="A1:AMK14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -321,8 +321,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="24.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="20.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="22.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="22.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1021" style="1" width="8.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="1" width="8.37"/>
   </cols>
@@ -437,16 +437,15 @@
       <c r="F10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J10" s="8"/>
       <c r="AMF10" s="1"/>
       <c r="AMJ10" s="1"/>
       <c r="AMK10" s="1"/>
@@ -465,14 +464,14 @@
       <c r="E11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>12</v>
       </c>
       <c r="AMF11" s="1"/>
       <c r="AMJ11" s="1"/>
@@ -491,14 +490,14 @@
       <c r="E12" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="I12" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>12</v>
       </c>
       <c r="AMF12" s="1"/>
       <c r="AMJ12" s="1"/>
@@ -517,14 +516,14 @@
       <c r="D13" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>12</v>
       </c>
       <c r="AMF13" s="1"/>
       <c r="AMJ13" s="1"/>
@@ -543,14 +542,14 @@
       <c r="D14" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>12</v>
       </c>
       <c r="AMF14" s="1"/>
       <c r="AMJ14" s="1"/>
